--- a/AVG - hodnoty/Czechia_23-24.xlsx
+++ b/AVG - hodnoty/Czechia_23-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krejda/Documents/Python/Football/Player_Rating/AVG - hodnoty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krejda/Documents/Python/Aplikace/player_app/AVG - hodnoty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4E59B-8727-1349-8E2A-47F9715A870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A334F8-FB41-D44D-BA45-AFEE8FB1A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,11 +1915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:EB275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2326,7 +2325,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -2721,7 +2720,7 @@
         <v>1.2528676000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>224</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>1.4264711999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -3517,7 +3516,7 @@
         <v>1.3060065999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -3915,7 +3914,7 @@
         <v>1.3259808</v>
       </c>
     </row>
-    <row r="6" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>1.1687669999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -4702,7 +4701,7 @@
         <v>1.0942499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -5094,7 +5093,7 @@
         <v>1.3562464999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>307</v>
       </c>
@@ -5492,7 +5491,7 @@
         <v>1.0844952999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>1.4078283</v>
       </c>
     </row>
-    <row r="11" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -6288,7 +6287,7 @@
         <v>1.2334046999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>1.4569103999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -7084,7 +7083,7 @@
         <v>1.123122</v>
       </c>
     </row>
-    <row r="14" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -7482,7 +7481,7 @@
         <v>0.94842300000000013</v>
       </c>
     </row>
-    <row r="15" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>346</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>0.93770320000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>337</v>
       </c>
@@ -8278,7 +8277,7 @@
         <v>0.8399664</v>
       </c>
     </row>
-    <row r="17" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>348</v>
       </c>
@@ -8673,7 +8672,7 @@
         <v>1.1533764</v>
       </c>
     </row>
-    <row r="18" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -9071,7 +9070,7 @@
         <v>1.2685244</v>
       </c>
     </row>
-    <row r="19" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>317</v>
       </c>
@@ -9469,7 +9468,7 @@
         <v>1.1000462</v>
       </c>
     </row>
-    <row r="20" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -9867,7 +9866,7 @@
         <v>0.90513719999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>305</v>
       </c>
@@ -10265,7 +10264,7 @@
         <v>0.95602519999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -10663,7 +10662,7 @@
         <v>1.9491712000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -11061,7 +11060,7 @@
         <v>1.1092991999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -11456,7 +11455,7 @@
         <v>1.3550793999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -11854,7 +11853,7 @@
         <v>1.7913029</v>
       </c>
     </row>
-    <row r="26" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>336</v>
       </c>
@@ -12249,7 +12248,7 @@
         <v>1.0167066</v>
       </c>
     </row>
-    <row r="27" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>281</v>
       </c>
@@ -12644,7 +12643,7 @@
         <v>1.4129912</v>
       </c>
     </row>
-    <row r="28" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -13042,7 +13041,7 @@
         <v>1.148304</v>
       </c>
     </row>
-    <row r="29" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -13437,7 +13436,7 @@
         <v>1.4153296</v>
       </c>
     </row>
-    <row r="30" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>300</v>
       </c>
@@ -13835,7 +13834,7 @@
         <v>1.2968484</v>
       </c>
     </row>
-    <row r="31" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>295</v>
       </c>
@@ -14233,7 +14232,7 @@
         <v>1.2459753</v>
       </c>
     </row>
-    <row r="32" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -14631,7 +14630,7 @@
         <v>1.4074344000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -15026,7 +15025,7 @@
         <v>1.1672747999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -15424,7 +15423,7 @@
         <v>1.4355225</v>
       </c>
     </row>
-    <row r="35" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -15819,7 +15818,7 @@
         <v>1.2458157000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>283</v>
       </c>
@@ -16217,7 +16216,7 @@
         <v>1.0379354999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -16615,7 +16614,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="38" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>277</v>
       </c>
@@ -17013,7 +17012,7 @@
         <v>1.0267048000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -17411,7 +17410,7 @@
         <v>1.3425362000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>267</v>
       </c>
@@ -17809,7 +17808,7 @@
         <v>1.121769</v>
       </c>
     </row>
-    <row r="41" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -18207,7 +18206,7 @@
         <v>1.6239593999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -18605,7 +18604,7 @@
         <v>1.453506</v>
       </c>
     </row>
-    <row r="43" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>332</v>
       </c>
@@ -19003,7 +19002,7 @@
         <v>1.1975363999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -19401,7 +19400,7 @@
         <v>1.4625809999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>242</v>
       </c>
@@ -19796,7 +19795,7 @@
         <v>1.1106396000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -20194,7 +20193,7 @@
         <v>1.3349286</v>
       </c>
     </row>
-    <row r="47" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -20592,7 +20591,7 @@
         <v>1.1060700000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -20990,7 +20989,7 @@
         <v>1.1559804</v>
       </c>
     </row>
-    <row r="49" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -21385,7 +21384,7 @@
         <v>1.5497879999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -21783,7 +21782,7 @@
         <v>1.281156</v>
       </c>
     </row>
-    <row r="51" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -22181,7 +22180,7 @@
         <v>1.6621760000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>222</v>
       </c>
@@ -22579,7 +22578,7 @@
         <v>0.96607900000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>232</v>
       </c>
@@ -22977,7 +22976,7 @@
         <v>0.9525307999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -23375,7 +23374,7 @@
         <v>0.89842500000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -23773,7 +23772,7 @@
         <v>1.7434152000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -24171,7 +24170,7 @@
         <v>1.4933521999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -24569,7 +24568,7 @@
         <v>1.1838089999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>210</v>
       </c>
@@ -24967,7 +24966,7 @@
         <v>1.053987</v>
       </c>
     </row>
-    <row r="59" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>189</v>
       </c>
@@ -25362,7 +25361,7 @@
         <v>1.3198596</v>
       </c>
     </row>
-    <row r="60" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -25760,7 +25759,7 @@
         <v>1.2739438000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -26158,7 +26157,7 @@
         <v>1.4933814000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -26556,7 +26555,7 @@
         <v>1.2685063999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -26951,7 +26950,7 @@
         <v>1.3886807999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -27349,7 +27348,7 @@
         <v>1.5708329999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -27747,7 +27746,7 @@
         <v>1.4009522000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -28145,7 +28144,7 @@
         <v>1.1014101000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -28543,7 +28542,7 @@
         <v>1.6064248000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -28938,7 +28937,7 @@
         <v>1.5076153999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>331</v>
       </c>
@@ -29336,7 +29335,7 @@
         <v>1.107113</v>
       </c>
     </row>
-    <row r="70" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -29734,7 +29733,7 @@
         <v>1.5083405999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>201</v>
       </c>
@@ -30132,7 +30131,7 @@
         <v>1.4067365999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -30527,7 +30526,7 @@
         <v>1.3976132999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -30925,7 +30924,7 @@
         <v>1.473875</v>
       </c>
     </row>
-    <row r="74" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -31323,7 +31322,7 @@
         <v>1.077483</v>
       </c>
     </row>
-    <row r="75" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>205</v>
       </c>
@@ -31718,7 +31717,7 @@
         <v>1.8881203</v>
       </c>
     </row>
-    <row r="76" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -32116,7 +32115,7 @@
         <v>1.9146144</v>
       </c>
     </row>
-    <row r="77" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>329</v>
       </c>
@@ -32514,7 +32513,7 @@
         <v>1.0769712</v>
       </c>
     </row>
-    <row r="78" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -32912,7 +32911,7 @@
         <v>1.3328500000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -33310,7 +33309,7 @@
         <v>1.3745130000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -33708,7 +33707,7 @@
         <v>1.0684180999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -34106,7 +34105,7 @@
         <v>1.1936944</v>
       </c>
     </row>
-    <row r="82" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>212</v>
       </c>
@@ -34501,7 +34500,7 @@
         <v>1.8233600000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -34899,7 +34898,7 @@
         <v>1.4227472999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>214</v>
       </c>
@@ -35294,7 +35293,7 @@
         <v>1.3833652000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>239</v>
       </c>
@@ -35692,7 +35691,7 @@
         <v>1.4945234999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>239</v>
       </c>
@@ -36090,7 +36089,7 @@
         <v>1.4945234999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>217</v>
       </c>
@@ -36488,7 +36487,7 @@
         <v>1.2709788</v>
       </c>
     </row>
-    <row r="88" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -36886,7 +36885,7 @@
         <v>1.2562857999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>219</v>
       </c>
@@ -37281,7 +37280,7 @@
         <v>1.6134101999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>220</v>
       </c>
@@ -37673,7 +37672,7 @@
         <v>1.8404100000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>350</v>
       </c>
@@ -38071,7 +38070,7 @@
         <v>1.4373450000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -38466,7 +38465,7 @@
         <v>1.0267200000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -38861,7 +38860,7 @@
         <v>1.9863416</v>
       </c>
     </row>
-    <row r="94" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>288</v>
       </c>
@@ -39259,7 +39258,7 @@
         <v>1.4287890000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -39654,7 +39653,7 @@
         <v>1.3393484</v>
       </c>
     </row>
-    <row r="96" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -40049,7 +40048,7 @@
         <v>1.7491824</v>
       </c>
     </row>
-    <row r="97" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -40447,7 +40446,7 @@
         <v>1.6551446999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -40845,7 +40844,7 @@
         <v>1.3840357999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -41243,7 +41242,7 @@
         <v>1.3206921</v>
       </c>
     </row>
-    <row r="100" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -41641,7 +41640,7 @@
         <v>1.5020952000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -42036,7 +42035,7 @@
         <v>1.7205216999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -42431,7 +42430,7 @@
         <v>1.1125512</v>
       </c>
     </row>
-    <row r="103" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>178</v>
       </c>
@@ -42826,7 +42825,7 @@
         <v>0.99814680000000011</v>
       </c>
     </row>
-    <row r="104" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -43224,7 +43223,7 @@
         <v>1.4683679999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -43622,7 +43621,7 @@
         <v>1.62835</v>
       </c>
     </row>
-    <row r="106" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>236</v>
       </c>
@@ -44020,7 +44019,7 @@
         <v>1.8495832000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>253</v>
       </c>
@@ -44418,7 +44417,7 @@
         <v>1.3534404</v>
       </c>
     </row>
-    <row r="108" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -44816,7 +44815,7 @@
         <v>1.7605565999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>351</v>
       </c>
@@ -45214,7 +45213,7 @@
         <v>1.4745360000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>240</v>
       </c>
@@ -45612,7 +45611,7 @@
         <v>1.560851</v>
       </c>
     </row>
-    <row r="111" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>241</v>
       </c>
@@ -46010,7 +46009,7 @@
         <v>1.9406904</v>
       </c>
     </row>
-    <row r="112" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>175</v>
       </c>
@@ -46405,7 +46404,7 @@
         <v>1.3908081999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>235</v>
       </c>
@@ -46803,7 +46802,7 @@
         <v>1.2733436</v>
       </c>
     </row>
-    <row r="114" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>303</v>
       </c>
@@ -47201,7 +47200,7 @@
         <v>1.360609</v>
       </c>
     </row>
-    <row r="115" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>243</v>
       </c>
@@ -47599,7 +47598,7 @@
         <v>1.3340912</v>
       </c>
     </row>
-    <row r="116" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -47997,7 +47996,7 @@
         <v>1.4165809</v>
       </c>
     </row>
-    <row r="117" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>245</v>
       </c>
@@ -48395,7 +48394,7 @@
         <v>1.4389673000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>246</v>
       </c>
@@ -48793,7 +48792,7 @@
         <v>1.6028724000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>247</v>
       </c>
@@ -49188,7 +49187,7 @@
         <v>1.2578499000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>248</v>
       </c>
@@ -49583,7 +49582,7 @@
         <v>1.3151539999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -49978,7 +49977,7 @@
         <v>1.1801904000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -50376,7 +50375,7 @@
         <v>1.4628224000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>250</v>
       </c>
@@ -50774,7 +50773,7 @@
         <v>1.4628224000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>251</v>
       </c>
@@ -51169,7 +51168,7 @@
         <v>1.6444927</v>
       </c>
     </row>
-    <row r="125" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>252</v>
       </c>
@@ -51567,7 +51566,7 @@
         <v>1.8135846</v>
       </c>
     </row>
-    <row r="126" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>358</v>
       </c>
@@ -51965,7 +51964,7 @@
         <v>1.3345372</v>
       </c>
     </row>
-    <row r="127" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>254</v>
       </c>
@@ -52360,7 +52359,7 @@
         <v>1.3562415000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>180</v>
       </c>
@@ -52758,7 +52757,7 @@
         <v>1.9839724999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -53156,7 +53155,7 @@
         <v>1.5067488</v>
       </c>
     </row>
-    <row r="130" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>257</v>
       </c>
@@ -53554,7 +53553,7 @@
         <v>1.4848554</v>
       </c>
     </row>
-    <row r="131" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -53949,7 +53948,7 @@
         <v>1.4611968</v>
       </c>
     </row>
-    <row r="132" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>360</v>
       </c>
@@ -54344,7 +54343,7 @@
         <v>1.6756564</v>
       </c>
     </row>
-    <row r="133" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>260</v>
       </c>
@@ -54739,7 +54738,7 @@
         <v>1.5008056000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>261</v>
       </c>
@@ -55137,7 +55136,7 @@
         <v>1.5531716</v>
       </c>
     </row>
-    <row r="135" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -55535,7 +55534,7 @@
         <v>1.5531716</v>
       </c>
     </row>
-    <row r="136" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -55933,7 +55932,7 @@
         <v>0.92595929999999982</v>
       </c>
     </row>
-    <row r="137" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>263</v>
       </c>
@@ -56331,7 +56330,7 @@
         <v>1.5869340000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>264</v>
       </c>
@@ -56729,7 +56728,7 @@
         <v>1.8613265999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>265</v>
       </c>
@@ -57124,7 +57123,7 @@
         <v>1.3589370000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>266</v>
       </c>
@@ -57519,7 +57518,7 @@
         <v>1.7692566000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>170</v>
       </c>
@@ -57914,7 +57913,7 @@
         <v>1.1669726</v>
       </c>
     </row>
-    <row r="142" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>268</v>
       </c>
@@ -58312,7 +58311,7 @@
         <v>1.2415156000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>269</v>
       </c>
@@ -58710,7 +58709,7 @@
         <v>1.6042224</v>
       </c>
     </row>
-    <row r="144" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>270</v>
       </c>
@@ -59108,7 +59107,7 @@
         <v>1.2053262</v>
       </c>
     </row>
-    <row r="145" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>304</v>
       </c>
@@ -59506,7 +59505,7 @@
         <v>1.507706</v>
       </c>
     </row>
-    <row r="146" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>272</v>
       </c>
@@ -59904,7 +59903,7 @@
         <v>1.3281407999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>273</v>
       </c>
@@ -60302,7 +60301,7 @@
         <v>1.4032624</v>
       </c>
     </row>
-    <row r="148" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>274</v>
       </c>
@@ -60700,7 +60699,7 @@
         <v>1.6699518</v>
       </c>
     </row>
-    <row r="149" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -61098,7 +61097,7 @@
         <v>1.6317953999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>275</v>
       </c>
@@ -61496,7 +61495,7 @@
         <v>1.3532592000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>275</v>
       </c>
@@ -61894,7 +61893,7 @@
         <v>1.3532592000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>276</v>
       </c>
@@ -62292,7 +62291,7 @@
         <v>1.3199763</v>
       </c>
     </row>
-    <row r="153" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -62690,7 +62689,7 @@
         <v>1.2474335999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>278</v>
       </c>
@@ -63088,7 +63087,7 @@
         <v>1.3185948000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>364</v>
       </c>
@@ -63486,7 +63485,7 @@
         <v>1.6682060000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>280</v>
       </c>
@@ -63881,7 +63880,7 @@
         <v>1.1365605999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>306</v>
       </c>
@@ -64279,7 +64278,7 @@
         <v>1.5032637</v>
       </c>
     </row>
-    <row r="158" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>366</v>
       </c>
@@ -64677,7 +64676,7 @@
         <v>1.5886469999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -65075,7 +65074,7 @@
         <v>1.1963159999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>284</v>
       </c>
@@ -65473,7 +65472,7 @@
         <v>1.8763392000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>285</v>
       </c>
@@ -65871,7 +65870,7 @@
         <v>1.8601761000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>286</v>
       </c>
@@ -66269,7 +66268,7 @@
         <v>1.2784603999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>287</v>
       </c>
@@ -66667,7 +66666,7 @@
         <v>1.4436827999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>255</v>
       </c>
@@ -67065,7 +67064,7 @@
         <v>1.4205433999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>196</v>
       </c>
@@ -67463,7 +67462,7 @@
         <v>1.2950028</v>
       </c>
     </row>
-    <row r="166" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>289</v>
       </c>
@@ -67861,7 +67860,7 @@
         <v>1.4342286</v>
       </c>
     </row>
-    <row r="167" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>290</v>
       </c>
@@ -68256,7 +68255,7 @@
         <v>1.2908980000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>291</v>
       </c>
@@ -68651,7 +68650,7 @@
         <v>1.6526879999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>292</v>
       </c>
@@ -69046,7 +69045,7 @@
         <v>1.5527325000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>293</v>
       </c>
@@ -69444,7 +69443,7 @@
         <v>1.4119512000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>294</v>
       </c>
@@ -69842,7 +69841,7 @@
         <v>1.2990250000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>326</v>
       </c>
@@ -70240,7 +70239,7 @@
         <v>1.0910899999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>296</v>
       </c>
@@ -70638,7 +70637,7 @@
         <v>1.6979291999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>297</v>
       </c>
@@ -71036,7 +71035,7 @@
         <v>1.9856100000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>298</v>
       </c>
@@ -71434,7 +71433,7 @@
         <v>1.2067496</v>
       </c>
     </row>
-    <row r="176" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>299</v>
       </c>
@@ -71832,7 +71831,7 @@
         <v>1.0812999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>160</v>
       </c>
@@ -72230,7 +72229,7 @@
         <v>1.2029444</v>
       </c>
     </row>
-    <row r="178" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>301</v>
       </c>
@@ -72625,7 +72624,7 @@
         <v>1.5345331</v>
       </c>
     </row>
-    <row r="179" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>302</v>
       </c>
@@ -73023,7 +73022,7 @@
         <v>1.8327055999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>156</v>
       </c>
@@ -73421,7 +73420,7 @@
         <v>1.0239064</v>
       </c>
     </row>
-    <row r="181" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>259</v>
       </c>
@@ -73819,7 +73818,7 @@
         <v>1.6547934</v>
       </c>
     </row>
-    <row r="182" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>151</v>
       </c>
@@ -74217,7 +74216,7 @@
         <v>1.159146</v>
       </c>
     </row>
-    <row r="183" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -74615,7 +74614,7 @@
         <v>1.6727436</v>
       </c>
     </row>
-    <row r="184" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -75010,7 +75009,7 @@
         <v>1.7959871999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>308</v>
       </c>
@@ -75408,7 +75407,7 @@
         <v>1.4013545000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -75806,7 +75805,7 @@
         <v>1.6761779999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>320</v>
       </c>
@@ -76204,7 +76203,7 @@
         <v>1.0738935000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>311</v>
       </c>
@@ -76599,7 +76598,7 @@
         <v>1.4308084999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>312</v>
       </c>
@@ -76997,7 +76996,7 @@
         <v>1.7664120000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>313</v>
       </c>
@@ -77395,7 +77394,7 @@
         <v>1.153845</v>
       </c>
     </row>
-    <row r="191" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>314</v>
       </c>
@@ -77793,7 +77792,7 @@
         <v>1.9454887000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>315</v>
       </c>
@@ -78191,7 +78190,7 @@
         <v>1.706124</v>
       </c>
     </row>
-    <row r="193" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>316</v>
       </c>
@@ -78589,7 +78588,7 @@
         <v>1.6094196999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>149</v>
       </c>
@@ -78987,7 +78986,7 @@
         <v>1.0419461999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>318</v>
       </c>
@@ -79382,7 +79381,7 @@
         <v>2.0741090999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>319</v>
       </c>
@@ -79780,7 +79779,7 @@
         <v>1.9255040000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>367</v>
       </c>
@@ -80175,7 +80174,7 @@
         <v>1.5842400000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>321</v>
       </c>
@@ -80573,7 +80572,7 @@
         <v>1.570254</v>
       </c>
     </row>
-    <row r="199" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>322</v>
       </c>
@@ -80968,7 +80967,7 @@
         <v>1.4331598999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>323</v>
       </c>
@@ -81366,7 +81365,7 @@
         <v>1.1236628</v>
       </c>
     </row>
-    <row r="201" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>324</v>
       </c>
@@ -81764,7 +81763,7 @@
         <v>1.3342259999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>325</v>
       </c>
@@ -82162,7 +82161,7 @@
         <v>1.9819800000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>196</v>
       </c>
@@ -82560,7 +82559,7 @@
         <v>1.8782656</v>
       </c>
     </row>
-    <row r="204" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>327</v>
       </c>
@@ -82955,7 +82954,7 @@
         <v>1.339215</v>
       </c>
     </row>
-    <row r="205" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>328</v>
       </c>
@@ -83353,7 +83352,7 @@
         <v>2.0014959999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>139</v>
       </c>
@@ -83751,7 +83750,7 @@
         <v>1.159667</v>
       </c>
     </row>
-    <row r="207" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>330</v>
       </c>
@@ -84149,7 +84148,7 @@
         <v>1.6788877</v>
       </c>
     </row>
-    <row r="208" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>147</v>
       </c>
@@ -84544,7 +84543,7 @@
         <v>1.0615416</v>
       </c>
     </row>
-    <row r="209" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>262</v>
       </c>
@@ -84942,7 +84941,7 @@
         <v>1.485042</v>
       </c>
     </row>
-    <row r="210" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>333</v>
       </c>
@@ -85340,7 +85339,7 @@
         <v>1.1478759999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>334</v>
       </c>
@@ -85738,7 +85737,7 @@
         <v>1.3002682000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>335</v>
       </c>
@@ -86136,7 +86135,7 @@
         <v>1.4915940000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>200</v>
       </c>
@@ -86534,7 +86533,7 @@
         <v>1.8661724</v>
       </c>
     </row>
-    <row r="214" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>309</v>
       </c>
@@ -86932,7 +86931,7 @@
         <v>1.1882983</v>
       </c>
     </row>
-    <row r="215" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>338</v>
       </c>
@@ -87330,7 +87329,7 @@
         <v>1.4494494</v>
       </c>
     </row>
-    <row r="216" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>339</v>
       </c>
@@ -87728,7 +87727,7 @@
         <v>1.6365951000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>339</v>
       </c>
@@ -88126,7 +88125,7 @@
         <v>1.6365951000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>340</v>
       </c>
@@ -88524,7 +88523,7 @@
         <v>1.6641861</v>
       </c>
     </row>
-    <row r="219" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>341</v>
       </c>
@@ -88922,7 +88921,7 @@
         <v>1.2224477</v>
       </c>
     </row>
-    <row r="220" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>342</v>
       </c>
@@ -89320,7 +89319,7 @@
         <v>1.4171739999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>343</v>
       </c>
@@ -89715,7 +89714,7 @@
         <v>1.3273803</v>
       </c>
     </row>
-    <row r="222" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>343</v>
       </c>
@@ -90110,7 +90109,7 @@
         <v>1.3273803</v>
       </c>
     </row>
-    <row r="223" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>344</v>
       </c>
@@ -90508,7 +90507,7 @@
         <v>1.94496</v>
       </c>
     </row>
-    <row r="224" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>345</v>
       </c>
@@ -90903,7 +90902,7 @@
         <v>1.6715268000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>145</v>
       </c>
@@ -91301,7 +91300,7 @@
         <v>1.1333899999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>347</v>
       </c>
@@ -91699,7 +91698,7 @@
         <v>1.5249419</v>
       </c>
     </row>
-    <row r="227" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>146</v>
       </c>
@@ -92097,7 +92096,7 @@
         <v>1.2259743999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>349</v>
       </c>
@@ -92495,7 +92494,7 @@
         <v>1.2541104000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>271</v>
       </c>
@@ -92893,7 +92892,7 @@
         <v>1.5192589000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>352</v>
       </c>
@@ -93291,7 +93290,7 @@
         <v>1.5875035</v>
       </c>
     </row>
-    <row r="231" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>353</v>
       </c>
@@ -93689,7 +93688,7 @@
         <v>1.1994962</v>
       </c>
     </row>
-    <row r="232" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>354</v>
       </c>
@@ -94087,7 +94086,7 @@
         <v>1.7387227000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>354</v>
       </c>
@@ -94485,7 +94484,7 @@
         <v>1.7387227000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>355</v>
       </c>
@@ -94883,7 +94882,7 @@
         <v>1.5376608</v>
       </c>
     </row>
-    <row r="235" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>356</v>
       </c>
@@ -95281,7 +95280,7 @@
         <v>2.0149154999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>357</v>
       </c>
@@ -95679,7 +95678,7 @@
         <v>1.3998474000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>357</v>
       </c>
@@ -96077,7 +96076,7 @@
         <v>1.3998474000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>381</v>
       </c>
@@ -96475,7 +96474,7 @@
         <v>1.4897346</v>
       </c>
     </row>
-    <row r="239" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>359</v>
       </c>
@@ -96873,7 +96872,7 @@
         <v>2.1472000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>204</v>
       </c>
@@ -97268,7 +97267,7 @@
         <v>1.8604752</v>
       </c>
     </row>
-    <row r="241" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>361</v>
       </c>
@@ -97666,7 +97665,7 @@
         <v>1.3982976</v>
       </c>
     </row>
-    <row r="242" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>362</v>
       </c>
@@ -98061,7 +98060,7 @@
         <v>2.0107493000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>363</v>
       </c>
@@ -98459,7 +98458,7 @@
         <v>1.4061250000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>215</v>
       </c>
@@ -98854,7 +98853,7 @@
         <v>1.8894287999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>365</v>
       </c>
@@ -99252,7 +99251,7 @@
         <v>1.414434</v>
       </c>
     </row>
-    <row r="246" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>384</v>
       </c>
@@ -99650,7 +99649,7 @@
         <v>1.4476917</v>
       </c>
     </row>
-    <row r="247" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>216</v>
       </c>
@@ -100048,7 +100047,7 @@
         <v>2.0590926999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>368</v>
       </c>
@@ -100446,7 +100445,7 @@
         <v>1.7176427999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>369</v>
       </c>
@@ -100844,7 +100843,7 @@
         <v>1.6125119999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>370</v>
       </c>
@@ -101242,7 +101241,7 @@
         <v>1.9601824000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>144</v>
       </c>
@@ -101637,7 +101636,7 @@
         <v>0.86389199999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>372</v>
       </c>
@@ -102035,7 +102034,7 @@
         <v>1.5576623999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>373</v>
       </c>
@@ -102433,7 +102432,7 @@
         <v>1.3332417999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>374</v>
       </c>
@@ -102831,7 +102830,7 @@
         <v>1.3020029</v>
       </c>
     </row>
-    <row r="255" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>375</v>
       </c>
@@ -103229,7 +103228,7 @@
         <v>1.3799058</v>
       </c>
     </row>
-    <row r="256" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>376</v>
       </c>
@@ -103627,7 +103626,7 @@
         <v>1.4450487999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>377</v>
       </c>
@@ -104025,7 +104024,7 @@
         <v>1.9611605999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>378</v>
       </c>
@@ -104423,7 +104422,7 @@
         <v>1.55925</v>
       </c>
     </row>
-    <row r="259" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>379</v>
       </c>
@@ -104818,7 +104817,7 @@
         <v>1.4398454000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>380</v>
       </c>
@@ -105213,7 +105212,7 @@
         <v>1.646736</v>
       </c>
     </row>
-    <row r="261" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>221</v>
       </c>
@@ -105611,7 +105610,7 @@
         <v>1.9263467999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>382</v>
       </c>
@@ -106009,7 +106008,7 @@
         <v>1.4603805999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>383</v>
       </c>
@@ -106407,7 +106406,7 @@
         <v>1.8034300000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>383</v>
       </c>
@@ -107203,7 +107202,7 @@
         <v>1.5733492</v>
       </c>
     </row>
-    <row r="266" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>385</v>
       </c>
@@ -107601,7 +107600,7 @@
         <v>2.0122361999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>386</v>
       </c>
@@ -107996,7 +107995,7 @@
         <v>1.4478822</v>
       </c>
     </row>
-    <row r="268" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>387</v>
       </c>
@@ -108391,7 +108390,7 @@
         <v>1.9185687</v>
       </c>
     </row>
-    <row r="269" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>388</v>
       </c>
@@ -108789,7 +108788,7 @@
         <v>1.9981202</v>
       </c>
     </row>
-    <row r="270" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>389</v>
       </c>
@@ -109187,7 +109186,7 @@
         <v>1.8524632000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>210</v>
       </c>
@@ -109582,7 +109581,7 @@
         <v>1.5548864</v>
       </c>
     </row>
-    <row r="272" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>390</v>
       </c>
@@ -109980,7 +109979,7 @@
         <v>1.5170309</v>
       </c>
     </row>
-    <row r="273" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>391</v>
       </c>
@@ -110378,7 +110377,7 @@
         <v>1.9033070000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>392</v>
       </c>
@@ -110776,7 +110775,7 @@
         <v>1.6637257000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:132" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
       <c r="DZ275"/>
       <c r="EA275">
         <f>AVERAGE(EA2:EA274)</f>
@@ -110786,6 +110785,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:EB275" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="L. Kalvach"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:EB275">
       <sortCondition ref="O1:O275"/>
     </sortState>

--- a/AVG - hodnoty/Czechia_23-24.xlsx
+++ b/AVG - hodnoty/Czechia_23-24.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krejda/Documents/Python/Aplikace/player_app/AVG - hodnoty/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krejda/Documents/Python/Football/Player_Rating/AVG - hodnoty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A334F8-FB41-D44D-BA45-AFEE8FB1A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4E59B-8727-1349-8E2A-47F9715A870E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1915,10 +1915,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:EB275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2325,7 +2326,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>132</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>1.2528676000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>224</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>1.4264711999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>1.3060065999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -3914,7 +3915,7 @@
         <v>1.3259808</v>
       </c>
     </row>
-    <row r="6" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>1.1687669999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>137</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>1.0942499999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>138</v>
       </c>
@@ -5093,7 +5094,7 @@
         <v>1.3562464999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>307</v>
       </c>
@@ -5491,7 +5492,7 @@
         <v>1.0844952999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>140</v>
       </c>
@@ -5889,7 +5890,7 @@
         <v>1.4078283</v>
       </c>
     </row>
-    <row r="11" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>141</v>
       </c>
@@ -6287,7 +6288,7 @@
         <v>1.2334046999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>142</v>
       </c>
@@ -6685,7 +6686,7 @@
         <v>1.4569103999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>143</v>
       </c>
@@ -7083,7 +7084,7 @@
         <v>1.123122</v>
       </c>
     </row>
-    <row r="14" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>371</v>
       </c>
@@ -7481,7 +7482,7 @@
         <v>0.94842300000000013</v>
       </c>
     </row>
-    <row r="15" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>346</v>
       </c>
@@ -7879,7 +7880,7 @@
         <v>0.93770320000000007</v>
       </c>
     </row>
-    <row r="16" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>337</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>0.8399664</v>
       </c>
     </row>
-    <row r="17" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>348</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>1.1533764</v>
       </c>
     </row>
-    <row r="18" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>148</v>
       </c>
@@ -9070,7 +9071,7 @@
         <v>1.2685244</v>
       </c>
     </row>
-    <row r="19" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>317</v>
       </c>
@@ -9468,7 +9469,7 @@
         <v>1.1000462</v>
       </c>
     </row>
-    <row r="20" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -9866,7 +9867,7 @@
         <v>0.90513719999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>305</v>
       </c>
@@ -10264,7 +10265,7 @@
         <v>0.95602519999999991</v>
       </c>
     </row>
-    <row r="22" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>152</v>
       </c>
@@ -10662,7 +10663,7 @@
         <v>1.9491712000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>153</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>1.1092991999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>154</v>
       </c>
@@ -11455,7 +11456,7 @@
         <v>1.3550793999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>155</v>
       </c>
@@ -11853,7 +11854,7 @@
         <v>1.7913029</v>
       </c>
     </row>
-    <row r="26" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>336</v>
       </c>
@@ -12248,7 +12249,7 @@
         <v>1.0167066</v>
       </c>
     </row>
-    <row r="27" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>281</v>
       </c>
@@ -12643,7 +12644,7 @@
         <v>1.4129912</v>
       </c>
     </row>
-    <row r="28" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>158</v>
       </c>
@@ -13041,7 +13042,7 @@
         <v>1.148304</v>
       </c>
     </row>
-    <row r="29" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>159</v>
       </c>
@@ -13436,7 +13437,7 @@
         <v>1.4153296</v>
       </c>
     </row>
-    <row r="30" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>300</v>
       </c>
@@ -13834,7 +13835,7 @@
         <v>1.2968484</v>
       </c>
     </row>
-    <row r="31" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>295</v>
       </c>
@@ -14232,7 +14233,7 @@
         <v>1.2459753</v>
       </c>
     </row>
-    <row r="32" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>162</v>
       </c>
@@ -14630,7 +14631,7 @@
         <v>1.4074344000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>163</v>
       </c>
@@ -15025,7 +15026,7 @@
         <v>1.1672747999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>282</v>
       </c>
@@ -15423,7 +15424,7 @@
         <v>1.4355225</v>
       </c>
     </row>
-    <row r="35" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>165</v>
       </c>
@@ -15818,7 +15819,7 @@
         <v>1.2458157000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>283</v>
       </c>
@@ -16216,7 +16217,7 @@
         <v>1.0379354999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -16614,7 +16615,7 @@
         <v>1.46</v>
       </c>
     </row>
-    <row r="38" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>277</v>
       </c>
@@ -17012,7 +17013,7 @@
         <v>1.0267048000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>169</v>
       </c>
@@ -17410,7 +17411,7 @@
         <v>1.3425362000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>267</v>
       </c>
@@ -17808,7 +17809,7 @@
         <v>1.121769</v>
       </c>
     </row>
-    <row r="41" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>171</v>
       </c>
@@ -18206,7 +18207,7 @@
         <v>1.6239593999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>172</v>
       </c>
@@ -18604,7 +18605,7 @@
         <v>1.453506</v>
       </c>
     </row>
-    <row r="43" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>332</v>
       </c>
@@ -19002,7 +19003,7 @@
         <v>1.1975363999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>174</v>
       </c>
@@ -19400,7 +19401,7 @@
         <v>1.4625809999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>242</v>
       </c>
@@ -19795,7 +19796,7 @@
         <v>1.1106396000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>176</v>
       </c>
@@ -20193,7 +20194,7 @@
         <v>1.3349286</v>
       </c>
     </row>
-    <row r="47" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>177</v>
       </c>
@@ -20591,7 +20592,7 @@
         <v>1.1060700000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -20989,7 +20990,7 @@
         <v>1.1559804</v>
       </c>
     </row>
-    <row r="49" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -21384,7 +21385,7 @@
         <v>1.5497879999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>150</v>
       </c>
@@ -21782,7 +21783,7 @@
         <v>1.281156</v>
       </c>
     </row>
-    <row r="51" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -22180,7 +22181,7 @@
         <v>1.6621760000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>222</v>
       </c>
@@ -22578,7 +22579,7 @@
         <v>0.96607900000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>232</v>
       </c>
@@ -22976,7 +22977,7 @@
         <v>0.9525307999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>218</v>
       </c>
@@ -23374,7 +23375,7 @@
         <v>0.89842500000000003</v>
       </c>
     </row>
-    <row r="55" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>157</v>
       </c>
@@ -23772,7 +23773,7 @@
         <v>1.7434152000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>237</v>
       </c>
@@ -24170,7 +24171,7 @@
         <v>1.4933521999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>211</v>
       </c>
@@ -24568,7 +24569,7 @@
         <v>1.1838089999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>210</v>
       </c>
@@ -24966,7 +24967,7 @@
         <v>1.053987</v>
       </c>
     </row>
-    <row r="59" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>189</v>
       </c>
@@ -25361,7 +25362,7 @@
         <v>1.3198596</v>
       </c>
     </row>
-    <row r="60" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -25759,7 +25760,7 @@
         <v>1.2739438000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>191</v>
       </c>
@@ -26157,7 +26158,7 @@
         <v>1.4933814000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -26555,7 +26556,7 @@
         <v>1.2685063999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>193</v>
       </c>
@@ -26950,7 +26951,7 @@
         <v>1.3886807999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>161</v>
       </c>
@@ -27348,7 +27349,7 @@
         <v>1.5708329999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -27746,7 +27747,7 @@
         <v>1.4009522000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>207</v>
       </c>
@@ -28144,7 +28145,7 @@
         <v>1.1014101000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -28542,7 +28543,7 @@
         <v>1.6064248000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -28937,7 +28938,7 @@
         <v>1.5076153999999999</v>
       </c>
     </row>
-    <row r="69" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>331</v>
       </c>
@@ -29335,7 +29336,7 @@
         <v>1.107113</v>
       </c>
     </row>
-    <row r="70" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>164</v>
       </c>
@@ -29733,7 +29734,7 @@
         <v>1.5083405999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>201</v>
       </c>
@@ -30131,7 +30132,7 @@
         <v>1.4067365999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>202</v>
       </c>
@@ -30526,7 +30527,7 @@
         <v>1.3976132999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>203</v>
       </c>
@@ -30924,7 +30925,7 @@
         <v>1.473875</v>
       </c>
     </row>
-    <row r="74" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -31322,7 +31323,7 @@
         <v>1.077483</v>
       </c>
     </row>
-    <row r="75" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>205</v>
       </c>
@@ -31717,7 +31718,7 @@
         <v>1.8881203</v>
       </c>
     </row>
-    <row r="76" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>206</v>
       </c>
@@ -32115,7 +32116,7 @@
         <v>1.9146144</v>
       </c>
     </row>
-    <row r="77" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>329</v>
       </c>
@@ -32513,7 +32514,7 @@
         <v>1.0769712</v>
       </c>
     </row>
-    <row r="78" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -32911,7 +32912,7 @@
         <v>1.3328500000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -33309,7 +33310,7 @@
         <v>1.3745130000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>188</v>
       </c>
@@ -33707,7 +33708,7 @@
         <v>1.0684180999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -34105,7 +34106,7 @@
         <v>1.1936944</v>
       </c>
     </row>
-    <row r="82" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>212</v>
       </c>
@@ -34500,7 +34501,7 @@
         <v>1.8233600000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>213</v>
       </c>
@@ -34898,7 +34899,7 @@
         <v>1.4227472999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>214</v>
       </c>
@@ -35293,7 +35294,7 @@
         <v>1.3833652000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>239</v>
       </c>
@@ -35691,7 +35692,7 @@
         <v>1.4945234999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>239</v>
       </c>
@@ -36089,7 +36090,7 @@
         <v>1.4945234999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>217</v>
       </c>
@@ -36487,7 +36488,7 @@
         <v>1.2709788</v>
       </c>
     </row>
-    <row r="88" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>184</v>
       </c>
@@ -36885,7 +36886,7 @@
         <v>1.2562857999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>219</v>
       </c>
@@ -37280,7 +37281,7 @@
         <v>1.6134101999999999</v>
       </c>
     </row>
-    <row r="90" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>220</v>
       </c>
@@ -37672,7 +37673,7 @@
         <v>1.8404100000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>350</v>
       </c>
@@ -38070,7 +38071,7 @@
         <v>1.4373450000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>183</v>
       </c>
@@ -38465,7 +38466,7 @@
         <v>1.0267200000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -38860,7 +38861,7 @@
         <v>1.9863416</v>
       </c>
     </row>
-    <row r="94" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>288</v>
       </c>
@@ -39258,7 +39259,7 @@
         <v>1.4287890000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>225</v>
       </c>
@@ -39653,7 +39654,7 @@
         <v>1.3393484</v>
       </c>
     </row>
-    <row r="96" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>226</v>
       </c>
@@ -40048,7 +40049,7 @@
         <v>1.7491824</v>
       </c>
     </row>
-    <row r="97" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>227</v>
       </c>
@@ -40446,7 +40447,7 @@
         <v>1.6551446999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>228</v>
       </c>
@@ -40844,7 +40845,7 @@
         <v>1.3840357999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>229</v>
       </c>
@@ -41242,7 +41243,7 @@
         <v>1.3206921</v>
       </c>
     </row>
-    <row r="100" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>230</v>
       </c>
@@ -41640,7 +41641,7 @@
         <v>1.5020952000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>231</v>
       </c>
@@ -42035,7 +42036,7 @@
         <v>1.7205216999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -42430,7 +42431,7 @@
         <v>1.1125512</v>
       </c>
     </row>
-    <row r="103" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>178</v>
       </c>
@@ -42825,7 +42826,7 @@
         <v>0.99814680000000011</v>
       </c>
     </row>
-    <row r="104" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -43223,7 +43224,7 @@
         <v>1.4683679999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>235</v>
       </c>
@@ -43621,7 +43622,7 @@
         <v>1.62835</v>
       </c>
     </row>
-    <row r="106" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>236</v>
       </c>
@@ -44019,7 +44020,7 @@
         <v>1.8495832000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>253</v>
       </c>
@@ -44417,7 +44418,7 @@
         <v>1.3534404</v>
       </c>
     </row>
-    <row r="108" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -44815,7 +44816,7 @@
         <v>1.7605565999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>351</v>
       </c>
@@ -45213,7 +45214,7 @@
         <v>1.4745360000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>240</v>
       </c>
@@ -45611,7 +45612,7 @@
         <v>1.560851</v>
       </c>
     </row>
-    <row r="111" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>241</v>
       </c>
@@ -46009,7 +46010,7 @@
         <v>1.9406904</v>
       </c>
     </row>
-    <row r="112" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>175</v>
       </c>
@@ -46404,7 +46405,7 @@
         <v>1.3908081999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>235</v>
       </c>
@@ -46802,7 +46803,7 @@
         <v>1.2733436</v>
       </c>
     </row>
-    <row r="114" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>303</v>
       </c>
@@ -47200,7 +47201,7 @@
         <v>1.360609</v>
       </c>
     </row>
-    <row r="115" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>243</v>
       </c>
@@ -47598,7 +47599,7 @@
         <v>1.3340912</v>
       </c>
     </row>
-    <row r="116" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>244</v>
       </c>
@@ -47996,7 +47997,7 @@
         <v>1.4165809</v>
       </c>
     </row>
-    <row r="117" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>245</v>
       </c>
@@ -48394,7 +48395,7 @@
         <v>1.4389673000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>246</v>
       </c>
@@ -48792,7 +48793,7 @@
         <v>1.6028724000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>247</v>
       </c>
@@ -49187,7 +49188,7 @@
         <v>1.2578499000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>248</v>
       </c>
@@ -49582,7 +49583,7 @@
         <v>1.3151539999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>249</v>
       </c>
@@ -49977,7 +49978,7 @@
         <v>1.1801904000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -50375,7 +50376,7 @@
         <v>1.4628224000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>250</v>
       </c>
@@ -50773,7 +50774,7 @@
         <v>1.4628224000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>251</v>
       </c>
@@ -51168,7 +51169,7 @@
         <v>1.6444927</v>
       </c>
     </row>
-    <row r="125" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>252</v>
       </c>
@@ -51566,7 +51567,7 @@
         <v>1.8135846</v>
       </c>
     </row>
-    <row r="126" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>358</v>
       </c>
@@ -51964,7 +51965,7 @@
         <v>1.3345372</v>
       </c>
     </row>
-    <row r="127" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>254</v>
       </c>
@@ -52359,7 +52360,7 @@
         <v>1.3562415000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>180</v>
       </c>
@@ -52757,7 +52758,7 @@
         <v>1.9839724999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>256</v>
       </c>
@@ -53155,7 +53156,7 @@
         <v>1.5067488</v>
       </c>
     </row>
-    <row r="130" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>257</v>
       </c>
@@ -53553,7 +53554,7 @@
         <v>1.4848554</v>
       </c>
     </row>
-    <row r="131" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>258</v>
       </c>
@@ -53948,7 +53949,7 @@
         <v>1.4611968</v>
       </c>
     </row>
-    <row r="132" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>360</v>
       </c>
@@ -54343,7 +54344,7 @@
         <v>1.6756564</v>
       </c>
     </row>
-    <row r="133" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>260</v>
       </c>
@@ -54738,7 +54739,7 @@
         <v>1.5008056000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>261</v>
       </c>
@@ -55136,7 +55137,7 @@
         <v>1.5531716</v>
       </c>
     </row>
-    <row r="135" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>261</v>
       </c>
@@ -55534,7 +55535,7 @@
         <v>1.5531716</v>
       </c>
     </row>
-    <row r="136" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>173</v>
       </c>
@@ -55932,7 +55933,7 @@
         <v>0.92595929999999982</v>
       </c>
     </row>
-    <row r="137" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>263</v>
       </c>
@@ -56330,7 +56331,7 @@
         <v>1.5869340000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>264</v>
       </c>
@@ -56728,7 +56729,7 @@
         <v>1.8613265999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>265</v>
       </c>
@@ -57123,7 +57124,7 @@
         <v>1.3589370000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>266</v>
       </c>
@@ -57518,7 +57519,7 @@
         <v>1.7692566000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>170</v>
       </c>
@@ -57913,7 +57914,7 @@
         <v>1.1669726</v>
       </c>
     </row>
-    <row r="142" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>268</v>
       </c>
@@ -58311,7 +58312,7 @@
         <v>1.2415156000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>269</v>
       </c>
@@ -58709,7 +58710,7 @@
         <v>1.6042224</v>
       </c>
     </row>
-    <row r="144" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>270</v>
       </c>
@@ -59107,7 +59108,7 @@
         <v>1.2053262</v>
       </c>
     </row>
-    <row r="145" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>304</v>
       </c>
@@ -59505,7 +59506,7 @@
         <v>1.507706</v>
       </c>
     </row>
-    <row r="146" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>272</v>
       </c>
@@ -59903,7 +59904,7 @@
         <v>1.3281407999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>273</v>
       </c>
@@ -60301,7 +60302,7 @@
         <v>1.4032624</v>
       </c>
     </row>
-    <row r="148" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>274</v>
       </c>
@@ -60699,7 +60700,7 @@
         <v>1.6699518</v>
       </c>
     </row>
-    <row r="149" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>185</v>
       </c>
@@ -61097,7 +61098,7 @@
         <v>1.6317953999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>275</v>
       </c>
@@ -61495,7 +61496,7 @@
         <v>1.3532592000000001</v>
       </c>
     </row>
-    <row r="151" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>275</v>
       </c>
@@ -61893,7 +61894,7 @@
         <v>1.3532592000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>276</v>
       </c>
@@ -62291,7 +62292,7 @@
         <v>1.3199763</v>
       </c>
     </row>
-    <row r="153" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>168</v>
       </c>
@@ -62689,7 +62690,7 @@
         <v>1.2474335999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>278</v>
       </c>
@@ -63087,7 +63088,7 @@
         <v>1.3185948000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>364</v>
       </c>
@@ -63485,7 +63486,7 @@
         <v>1.6682060000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>280</v>
       </c>
@@ -63880,7 +63881,7 @@
         <v>1.1365605999999999</v>
       </c>
     </row>
-    <row r="157" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>306</v>
       </c>
@@ -64278,7 +64279,7 @@
         <v>1.5032637</v>
       </c>
     </row>
-    <row r="158" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>366</v>
       </c>
@@ -64676,7 +64677,7 @@
         <v>1.5886469999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -65074,7 +65075,7 @@
         <v>1.1963159999999999</v>
       </c>
     </row>
-    <row r="160" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>284</v>
       </c>
@@ -65472,7 +65473,7 @@
         <v>1.8763392000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>285</v>
       </c>
@@ -65870,7 +65871,7 @@
         <v>1.8601761000000001</v>
       </c>
     </row>
-    <row r="162" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>286</v>
       </c>
@@ -66268,7 +66269,7 @@
         <v>1.2784603999999999</v>
       </c>
     </row>
-    <row r="163" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>287</v>
       </c>
@@ -66666,7 +66667,7 @@
         <v>1.4436827999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>255</v>
       </c>
@@ -67064,7 +67065,7 @@
         <v>1.4205433999999999</v>
       </c>
     </row>
-    <row r="165" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>196</v>
       </c>
@@ -67462,7 +67463,7 @@
         <v>1.2950028</v>
       </c>
     </row>
-    <row r="166" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>289</v>
       </c>
@@ -67860,7 +67861,7 @@
         <v>1.4342286</v>
       </c>
     </row>
-    <row r="167" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>290</v>
       </c>
@@ -68255,7 +68256,7 @@
         <v>1.2908980000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>291</v>
       </c>
@@ -68650,7 +68651,7 @@
         <v>1.6526879999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>292</v>
       </c>
@@ -69045,7 +69046,7 @@
         <v>1.5527325000000001</v>
       </c>
     </row>
-    <row r="170" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>293</v>
       </c>
@@ -69443,7 +69444,7 @@
         <v>1.4119512000000001</v>
       </c>
     </row>
-    <row r="171" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>294</v>
       </c>
@@ -69841,7 +69842,7 @@
         <v>1.2990250000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>326</v>
       </c>
@@ -70239,7 +70240,7 @@
         <v>1.0910899999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>296</v>
       </c>
@@ -70637,7 +70638,7 @@
         <v>1.6979291999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>297</v>
       </c>
@@ -71035,7 +71036,7 @@
         <v>1.9856100000000001</v>
       </c>
     </row>
-    <row r="175" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>298</v>
       </c>
@@ -71433,7 +71434,7 @@
         <v>1.2067496</v>
       </c>
     </row>
-    <row r="176" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>299</v>
       </c>
@@ -71831,7 +71832,7 @@
         <v>1.0812999999999999</v>
       </c>
     </row>
-    <row r="177" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>160</v>
       </c>
@@ -72229,7 +72230,7 @@
         <v>1.2029444</v>
       </c>
     </row>
-    <row r="178" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>301</v>
       </c>
@@ -72624,7 +72625,7 @@
         <v>1.5345331</v>
       </c>
     </row>
-    <row r="179" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>302</v>
       </c>
@@ -73022,7 +73023,7 @@
         <v>1.8327055999999999</v>
       </c>
     </row>
-    <row r="180" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>156</v>
       </c>
@@ -73420,7 +73421,7 @@
         <v>1.0239064</v>
       </c>
     </row>
-    <row r="181" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>259</v>
       </c>
@@ -73818,7 +73819,7 @@
         <v>1.6547934</v>
       </c>
     </row>
-    <row r="182" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>151</v>
       </c>
@@ -74216,7 +74217,7 @@
         <v>1.159146</v>
       </c>
     </row>
-    <row r="183" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -74614,7 +74615,7 @@
         <v>1.6727436</v>
       </c>
     </row>
-    <row r="184" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>192</v>
       </c>
@@ -75009,7 +75010,7 @@
         <v>1.7959871999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>308</v>
       </c>
@@ -75407,7 +75408,7 @@
         <v>1.4013545000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>194</v>
       </c>
@@ -75805,7 +75806,7 @@
         <v>1.6761779999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>320</v>
       </c>
@@ -76203,7 +76204,7 @@
         <v>1.0738935000000001</v>
       </c>
     </row>
-    <row r="188" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>311</v>
       </c>
@@ -76598,7 +76599,7 @@
         <v>1.4308084999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>312</v>
       </c>
@@ -76996,7 +76997,7 @@
         <v>1.7664120000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>313</v>
       </c>
@@ -77394,7 +77395,7 @@
         <v>1.153845</v>
       </c>
     </row>
-    <row r="191" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>314</v>
       </c>
@@ -77792,7 +77793,7 @@
         <v>1.9454887000000001</v>
       </c>
     </row>
-    <row r="192" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>315</v>
       </c>
@@ -78190,7 +78191,7 @@
         <v>1.706124</v>
       </c>
     </row>
-    <row r="193" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>316</v>
       </c>
@@ -78588,7 +78589,7 @@
         <v>1.6094196999999999</v>
       </c>
     </row>
-    <row r="194" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>149</v>
       </c>
@@ -78986,7 +78987,7 @@
         <v>1.0419461999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>318</v>
       </c>
@@ -79381,7 +79382,7 @@
         <v>2.0741090999999998</v>
       </c>
     </row>
-    <row r="196" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>319</v>
       </c>
@@ -79779,7 +79780,7 @@
         <v>1.9255040000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>367</v>
       </c>
@@ -80174,7 +80175,7 @@
         <v>1.5842400000000001</v>
       </c>
     </row>
-    <row r="198" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>321</v>
       </c>
@@ -80572,7 +80573,7 @@
         <v>1.570254</v>
       </c>
     </row>
-    <row r="199" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>322</v>
       </c>
@@ -80967,7 +80968,7 @@
         <v>1.4331598999999999</v>
       </c>
     </row>
-    <row r="200" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>323</v>
       </c>
@@ -81365,7 +81366,7 @@
         <v>1.1236628</v>
       </c>
     </row>
-    <row r="201" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>324</v>
       </c>
@@ -81763,7 +81764,7 @@
         <v>1.3342259999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>325</v>
       </c>
@@ -82161,7 +82162,7 @@
         <v>1.9819800000000001</v>
       </c>
     </row>
-    <row r="203" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>196</v>
       </c>
@@ -82559,7 +82560,7 @@
         <v>1.8782656</v>
       </c>
     </row>
-    <row r="204" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>327</v>
       </c>
@@ -82954,7 +82955,7 @@
         <v>1.339215</v>
       </c>
     </row>
-    <row r="205" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>328</v>
       </c>
@@ -83352,7 +83353,7 @@
         <v>2.0014959999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>139</v>
       </c>
@@ -83750,7 +83751,7 @@
         <v>1.159667</v>
       </c>
     </row>
-    <row r="207" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>330</v>
       </c>
@@ -84148,7 +84149,7 @@
         <v>1.6788877</v>
       </c>
     </row>
-    <row r="208" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>147</v>
       </c>
@@ -84543,7 +84544,7 @@
         <v>1.0615416</v>
       </c>
     </row>
-    <row r="209" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>262</v>
       </c>
@@ -84941,7 +84942,7 @@
         <v>1.485042</v>
       </c>
     </row>
-    <row r="210" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>333</v>
       </c>
@@ -85339,7 +85340,7 @@
         <v>1.1478759999999999</v>
       </c>
     </row>
-    <row r="211" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>334</v>
       </c>
@@ -85737,7 +85738,7 @@
         <v>1.3002682000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>335</v>
       </c>
@@ -86135,7 +86136,7 @@
         <v>1.4915940000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>200</v>
       </c>
@@ -86533,7 +86534,7 @@
         <v>1.8661724</v>
       </c>
     </row>
-    <row r="214" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>309</v>
       </c>
@@ -86931,7 +86932,7 @@
         <v>1.1882983</v>
       </c>
     </row>
-    <row r="215" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>338</v>
       </c>
@@ -87329,7 +87330,7 @@
         <v>1.4494494</v>
       </c>
     </row>
-    <row r="216" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>339</v>
       </c>
@@ -87727,7 +87728,7 @@
         <v>1.6365951000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>339</v>
       </c>
@@ -88125,7 +88126,7 @@
         <v>1.6365951000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>340</v>
       </c>
@@ -88523,7 +88524,7 @@
         <v>1.6641861</v>
       </c>
     </row>
-    <row r="219" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>341</v>
       </c>
@@ -88921,7 +88922,7 @@
         <v>1.2224477</v>
       </c>
     </row>
-    <row r="220" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>342</v>
       </c>
@@ -89319,7 +89320,7 @@
         <v>1.4171739999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>343</v>
       </c>
@@ -89714,7 +89715,7 @@
         <v>1.3273803</v>
       </c>
     </row>
-    <row r="222" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>343</v>
       </c>
@@ -90109,7 +90110,7 @@
         <v>1.3273803</v>
       </c>
     </row>
-    <row r="223" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>344</v>
       </c>
@@ -90507,7 +90508,7 @@
         <v>1.94496</v>
       </c>
     </row>
-    <row r="224" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>345</v>
       </c>
@@ -90902,7 +90903,7 @@
         <v>1.6715268000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>145</v>
       </c>
@@ -91300,7 +91301,7 @@
         <v>1.1333899999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>347</v>
       </c>
@@ -91698,7 +91699,7 @@
         <v>1.5249419</v>
       </c>
     </row>
-    <row r="227" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>146</v>
       </c>
@@ -92096,7 +92097,7 @@
         <v>1.2259743999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>349</v>
       </c>
@@ -92494,7 +92495,7 @@
         <v>1.2541104000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>271</v>
       </c>
@@ -92892,7 +92893,7 @@
         <v>1.5192589000000001</v>
       </c>
     </row>
-    <row r="230" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>352</v>
       </c>
@@ -93290,7 +93291,7 @@
         <v>1.5875035</v>
       </c>
     </row>
-    <row r="231" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>353</v>
       </c>
@@ -93688,7 +93689,7 @@
         <v>1.1994962</v>
       </c>
     </row>
-    <row r="232" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>354</v>
       </c>
@@ -94086,7 +94087,7 @@
         <v>1.7387227000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>354</v>
       </c>
@@ -94484,7 +94485,7 @@
         <v>1.7387227000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>355</v>
       </c>
@@ -94882,7 +94883,7 @@
         <v>1.5376608</v>
       </c>
     </row>
-    <row r="235" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>356</v>
       </c>
@@ -95280,7 +95281,7 @@
         <v>2.0149154999999999</v>
       </c>
     </row>
-    <row r="236" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>357</v>
       </c>
@@ -95678,7 +95679,7 @@
         <v>1.3998474000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>357</v>
       </c>
@@ -96076,7 +96077,7 @@
         <v>1.3998474000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>381</v>
       </c>
@@ -96474,7 +96475,7 @@
         <v>1.4897346</v>
       </c>
     </row>
-    <row r="239" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>359</v>
       </c>
@@ -96872,7 +96873,7 @@
         <v>2.1472000000000002</v>
       </c>
     </row>
-    <row r="240" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>204</v>
       </c>
@@ -97267,7 +97268,7 @@
         <v>1.8604752</v>
       </c>
     </row>
-    <row r="241" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>361</v>
       </c>
@@ -97665,7 +97666,7 @@
         <v>1.3982976</v>
       </c>
     </row>
-    <row r="242" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>362</v>
       </c>
@@ -98060,7 +98061,7 @@
         <v>2.0107493000000001</v>
       </c>
     </row>
-    <row r="243" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>363</v>
       </c>
@@ -98458,7 +98459,7 @@
         <v>1.4061250000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>215</v>
       </c>
@@ -98853,7 +98854,7 @@
         <v>1.8894287999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>365</v>
       </c>
@@ -99251,7 +99252,7 @@
         <v>1.414434</v>
       </c>
     </row>
-    <row r="246" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>384</v>
       </c>
@@ -99649,7 +99650,7 @@
         <v>1.4476917</v>
       </c>
     </row>
-    <row r="247" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>216</v>
       </c>
@@ -100047,7 +100048,7 @@
         <v>2.0590926999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>368</v>
       </c>
@@ -100445,7 +100446,7 @@
         <v>1.7176427999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>369</v>
       </c>
@@ -100843,7 +100844,7 @@
         <v>1.6125119999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>370</v>
       </c>
@@ -101241,7 +101242,7 @@
         <v>1.9601824000000001</v>
       </c>
     </row>
-    <row r="251" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>144</v>
       </c>
@@ -101636,7 +101637,7 @@
         <v>0.86389199999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>372</v>
       </c>
@@ -102034,7 +102035,7 @@
         <v>1.5576623999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>373</v>
       </c>
@@ -102432,7 +102433,7 @@
         <v>1.3332417999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>374</v>
       </c>
@@ -102830,7 +102831,7 @@
         <v>1.3020029</v>
       </c>
     </row>
-    <row r="255" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>375</v>
       </c>
@@ -103228,7 +103229,7 @@
         <v>1.3799058</v>
       </c>
     </row>
-    <row r="256" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>376</v>
       </c>
@@ -103626,7 +103627,7 @@
         <v>1.4450487999999999</v>
       </c>
     </row>
-    <row r="257" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>377</v>
       </c>
@@ -104024,7 +104025,7 @@
         <v>1.9611605999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>378</v>
       </c>
@@ -104422,7 +104423,7 @@
         <v>1.55925</v>
       </c>
     </row>
-    <row r="259" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>379</v>
       </c>
@@ -104817,7 +104818,7 @@
         <v>1.4398454000000001</v>
       </c>
     </row>
-    <row r="260" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>380</v>
       </c>
@@ -105212,7 +105213,7 @@
         <v>1.646736</v>
       </c>
     </row>
-    <row r="261" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>221</v>
       </c>
@@ -105610,7 +105611,7 @@
         <v>1.9263467999999999</v>
       </c>
     </row>
-    <row r="262" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>382</v>
       </c>
@@ -106008,7 +106009,7 @@
         <v>1.4603805999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>383</v>
       </c>
@@ -106406,7 +106407,7 @@
         <v>1.8034300000000001</v>
       </c>
     </row>
-    <row r="264" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>383</v>
       </c>
@@ -107202,7 +107203,7 @@
         <v>1.5733492</v>
       </c>
     </row>
-    <row r="266" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>385</v>
       </c>
@@ -107600,7 +107601,7 @@
         <v>2.0122361999999998</v>
       </c>
     </row>
-    <row r="267" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>386</v>
       </c>
@@ -107995,7 +107996,7 @@
         <v>1.4478822</v>
       </c>
     </row>
-    <row r="268" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>387</v>
       </c>
@@ -108390,7 +108391,7 @@
         <v>1.9185687</v>
       </c>
     </row>
-    <row r="269" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>388</v>
       </c>
@@ -108788,7 +108789,7 @@
         <v>1.9981202</v>
       </c>
     </row>
-    <row r="270" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>389</v>
       </c>
@@ -109186,7 +109187,7 @@
         <v>1.8524632000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>210</v>
       </c>
@@ -109581,7 +109582,7 @@
         <v>1.5548864</v>
       </c>
     </row>
-    <row r="272" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>390</v>
       </c>
@@ -109979,7 +109980,7 @@
         <v>1.5170309</v>
       </c>
     </row>
-    <row r="273" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>391</v>
       </c>
@@ -110377,7 +110378,7 @@
         <v>1.9033070000000001</v>
       </c>
     </row>
-    <row r="274" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:132" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>392</v>
       </c>
@@ -110775,7 +110776,7 @@
         <v>1.6637257000000001</v>
       </c>
     </row>
-    <row r="275" spans="1:132" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:132" x14ac:dyDescent="0.2">
       <c r="DZ275"/>
       <c r="EA275">
         <f>AVERAGE(EA2:EA274)</f>
@@ -110785,11 +110786,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:EB275" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="L. Kalvach"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:EB275">
       <sortCondition ref="O1:O275"/>
     </sortState>
